--- a/InputFile/ExcelOperationsDetails.xlsx
+++ b/InputFile/ExcelOperationsDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Salma_Testing\IndustryConnect\Internship\Competition_Task\Competition task 2\InputFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Salma_Testing\IndustryConnect\Internship\Competition_Task\Competition_SS\CompetitionTask\InputFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5DC89-EA44-46AC-BE0B-2DA08AEFC027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA073F-E5F6-430F-AFD2-DD641CD7F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="4">
-        <v>44711</v>
+        <v>44713</v>
       </c>
       <c r="I2" s="4">
         <v>44720</v>
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="4">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="I3" s="4">
         <v>44723</v>
